--- a/.planning/db_design.xlsx
+++ b/.planning/db_design.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\fashion\.planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF6F3EB-30A0-4C04-8A8A-DF8418A5720F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987C7EA8-8F5F-4874-815F-67CB3E28DE40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="6225" windowWidth="12000" windowHeight="8265"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -42,24 +42,12 @@
     <t>image</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>specs</t>
-  </si>
-  <si>
-    <t>specs_template</t>
-  </si>
-  <si>
     <t>merchant</t>
   </si>
   <si>
@@ -90,13 +78,61 @@
     <t>merchant_product_id</t>
   </si>
   <si>
-    <t>product_type</t>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>brands</t>
+  </si>
+  <si>
+    <t>brand_id</t>
+  </si>
+  <si>
+    <t>sleeve_length</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>sizes</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>collar_type</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>in_stock</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>long_text</t>
+  </si>
+  <si>
+    <t>scout_comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,9 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,11 +492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,34 +505,56 @@
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -503,122 +562,212 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B20" s="2"/>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
+      <c r="B24" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
